--- a/similarities/split_global/harmonic_similarity_timestamps_406.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_406.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:7']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:09.820000', '0:00:17.090000')]</t>
+          <t>('0:00:32.080000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:25.830000', '0:00:31.310000')]</t>
+          <t>('0:00:25.720000', '0:00:51.960000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=9.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=25.83']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=25.72</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:05.558652')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:08.720000', '0:00:10.480000')]</t>
+          <t>('0:00:50.130000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_107</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+          <t>('0:00:22.820000', '0:00:26.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+          <t>('0:01:00.120000', '0:01:03.420000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=58.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=22.82</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-107#t=24.66']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.240000', '0:00:13.460000'), ('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:41.580000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:27.660000', '0:01:36.720000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+          <t>('0:01:49.520000', '0:01:54.200000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=8.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min'], ['A#/F', 'F:7', 'A#'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'A#:7', 'D#:maj'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000'), ('0:04:31.220000', '0:04:38.420000'), ('0:00:24.680000', '0:00:31.240000')]</t>
+          <t>('0:00:13.500000', '0:00:25.260000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:43.540000', '0:01:00'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:00:12.120000', '0:00:18.460000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=43.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000'), ('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:02.560000', '0:00:21.440000'), ('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min', 'F/3', 'D:min'], ['Bb', 'C:maj', 'F:maj']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min', 'G', 'E:min'], ['C', 'D', 'G']]</t>
+          <t>['D#:maj', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:06.732000', '0:01:09.263000'), ('0:01:03.861000', '0:01:06.732000')]</t>
+          <t>('0:01:02.380000', '0:01:07.200000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:34.578745', '0:00:43.100468'), ('0:00:43.100468', '0:00:51.657021')]</t>
+          <t>('0:01:55.700000', '0:02:10.980000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=66.732', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=62.38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=34.578745', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=43.100468']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=115.7</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['Ab', 'Db/5', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:00.243000', '0:00:09.120000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'G#:min/B']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:25.260000', '0:00:34.280000')]</t>
+          <t>('0:00:48', '0:01:02.360000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:20.045192', '0:00:25.141972')]</t>
+          <t>('0:00:21.900000', '0:00:52.440000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=25.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=21.9</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:01:03.040000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:00:06.200000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.04</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=6.2</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:maj/G', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G', 'D/3', 'G']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:29.160000', '0:00:31.340000')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:14.414000', '0:00:17.044000')]</t>
+          <t>('0:00:26.960000', '0:00:33.500000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=29.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=14.414']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:20.160000', '0:01:26.120000'), ('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:35.460000', '0:00:50.440000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:36.940000', '0:01:43.280000'), ('0:00:39.840000', '0:00:47.280000')]</t>
+          <t>('0:01:08.800000', '0:01:33.270000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=80.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=35.46</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=96.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=68.8</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>['A', 'E', 'E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
+          <t>('0:00:14.752537', '0:00:30.298296')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:06.740000', '0:00:12.420000')]</t>
+          <t>('0:01:07.300000', '0:01:14.200000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-14#t=12.503707']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=14.752537</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=6.74']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=67.3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D:min', 'A:(3,5,b7,b9)', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:22.320000', '0:00:49.780000')]</t>
+          <t>('0:01:43', '0:02:02.840000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:12.680000', '0:00:20.200000')]</t>
+          <t>('0:01:00.760000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=22.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=103.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=12.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=60.76</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
